--- a/biology/Botanique/Explant/Explant.xlsx
+++ b/biology/Botanique/Explant/Explant.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Dans le domaine du clonage et plus généralement des biotechnologies et de la production végétale, un « explant » est le matériel végétal de base qui servira à produire des clones végétaux à partir d'une « plante-mère » ou éventuellement secondairement des greffons.
 Étymologiquement, le mot explant évoque un sens contraire à celui d'implant.
@@ -512,9 +524,11 @@
           <t>Dans le domaine sylvicole</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En sylviculture, l'explant de base est précisément défini par le droit belge[1] (Code forestier) comme tout « fragment d’organe ou de tissu prélevé sur un arbre sélectionné et conservé in vitro en vue de multiplications végétatives ultérieures » pour le matériel de reproduction végétative ».
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En sylviculture, l'explant de base est précisément défini par le droit belge (Code forestier) comme tout « fragment d’organe ou de tissu prélevé sur un arbre sélectionné et conservé in vitro en vue de multiplications végétatives ultérieures » pour le matériel de reproduction végétative ».
 Toujours dans le domaine sylvicole, ils complètent la stratégie des vergers à graines pour répondre à une demande de certains industriels de la filière bois souhaitant disposer de plants ou de bois final dont les caractéristiques techniques et génétiques soient les plus standardisées, c'est-à-dire les plus homogènes, régulières et prédictibles possibles, dans un esprit d'amélioration des plantes visant l'augmentation de la valeur marchande du bois ou du produit final par standardisation de qualités telles que la rectitude des troncs, la couleur ou densité du bois, etc).
 </t>
         </is>
@@ -544,7 +558,9 @@
           <t>Risques liés à l'utilisation d'explants</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Les techniques utilisant des explants ont montré leur efficacité en termes de productivité, mais non sans risques associés :
 contribution à la réduction de la diversité génétique des forêts plantées, au détriment de leur résilience
